--- a/003.python_study/006.project/001.sql_approval/011.技术准备/007.自定义规则审核/008.自定义审核规则.xlsx
+++ b/003.python_study/006.project/001.sql_approval/011.技术准备/007.自定义规则审核/008.自定义审核规则.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>维度一</t>
   </si>
@@ -38,10 +38,13 @@
     <t>维度3</t>
   </si>
   <si>
+    <t>正则</t>
+  </si>
+  <si>
     <t>审核目的（Audit Purpose）</t>
   </si>
   <si>
-    <t>审核对象（OperationTarget）</t>
+    <t>规则目标（OperationTarget）</t>
   </si>
   <si>
     <t>SQL类型（ApplicableSqlType）</t>
@@ -50,49 +53,31 @@
     <t>正确性（Correctness）</t>
   </si>
   <si>
-    <t>字段存在性检查（Field Existence Check）_字段（Field）</t>
+    <t>存在_字段</t>
   </si>
   <si>
     <t>Create语句</t>
   </si>
   <si>
-    <t>Select语句</t>
-  </si>
-  <si>
-    <t>插入语句</t>
-  </si>
-  <si>
-    <t>更新语句</t>
-  </si>
-  <si>
-    <t>存在性检查（Table Existence Check）_表（Table）</t>
-  </si>
-  <si>
-    <t>CREATE语句</t>
-  </si>
-  <si>
-    <t>SELECT语句</t>
+    <t>正则表达式</t>
+  </si>
+  <si>
+    <t>可维护性（Maintainability）</t>
+  </si>
+  <si>
+    <t>命名_字段</t>
+  </si>
+  <si>
+    <t>安全性（Security）</t>
+  </si>
+  <si>
+    <t>禁止_值</t>
   </si>
   <si>
     <t>INSERT语句</t>
   </si>
   <si>
     <t>UPDATE语句</t>
-  </si>
-  <si>
-    <t>DELETE语句</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据类型匹配检查（Data Type Matching Check）_字段（Field） </t>
-  </si>
-  <si>
-    <t>可维护性（Maintainability）</t>
-  </si>
-  <si>
-    <t>性能问题（Performance Issues）</t>
-  </si>
-  <si>
-    <t>安全性（Security）</t>
   </si>
 </sst>
 </file>
@@ -737,14 +722,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,22 +1052,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D23"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="33.7699115044248" customWidth="1"/>
-    <col min="3" max="3" width="57.0884955752212" customWidth="1"/>
+    <col min="3" max="3" width="49.1238938053097" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="20.2477876106195" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1"/>
     <row r="2" ht="33" customHeight="1"/>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,126 +1078,77 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="2:5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
+    <row r="19" spans="5:5">
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
